--- a/excel-example/RUS 25HS10038P-PI .xlsx
+++ b/excel-example/RUS 25HS10038P-PI .xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="136">
   <si>
     <t>spreadsheet.junzeng.H4sIAAAAAAAAAKuuBQBDv6ajAgAAAA==</t>
   </si>
@@ -726,7 +726,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -841,6 +841,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -857,66 +923,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1531,8 +1537,8 @@
   </sheetPr>
   <dimension ref="A1:Z89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1552,7 +1558,9 @@
     <col min="13" max="13" width="6.5703125" customWidth="1"/>
     <col min="14" max="14" width="9.7109375" customWidth="1"/>
     <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="10.7109375" customWidth="1"/>
+    <col min="16" max="17" width="10.7109375" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" customWidth="1"/>
     <col min="20" max="20" width="12.7109375" customWidth="1"/>
     <col min="21" max="21" width="12" customWidth="1"/>
     <col min="22" max="22" width="5.28515625" customWidth="1"/>
@@ -1563,97 +1571,100 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="R1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:23" ht="29.85" customHeight="1">
-      <c r="B2" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="B2" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" spans="1:23" ht="21.2" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
     </row>
     <row r="4" spans="1:23" ht="21.2" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
     </row>
     <row r="5" spans="1:23" ht="21.2" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
     </row>
     <row r="6" spans="1:23" ht="1.7" customHeight="1">
       <c r="A6" s="4" t="s">
@@ -1701,6 +1712,9 @@
       <c r="O6" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="R6" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="T6" s="4" t="s">
         <v>1</v>
       </c>
@@ -1718,22 +1732,22 @@
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
     </row>
     <row r="8" spans="1:23" ht="1.7" customHeight="1">
       <c r="A8" s="2" t="s">
@@ -1781,6 +1795,9 @@
       <c r="O8" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="R8" s="38" t="s">
+        <v>1</v>
+      </c>
       <c r="T8" s="36" t="s">
         <v>1</v>
       </c>
@@ -1795,82 +1812,82 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="21.2" customHeight="1">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45" t="s">
+      <c r="C9" s="48"/>
+      <c r="D9" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="44" t="s">
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="44"/>
-      <c r="N9" s="45" t="s">
+      <c r="M9" s="48"/>
+      <c r="N9" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="45"/>
+      <c r="O9" s="40"/>
     </row>
     <row r="10" spans="1:23" ht="21.2" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45" t="s">
+      <c r="C10" s="48"/>
+      <c r="D10" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="44" t="s">
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="44"/>
-      <c r="N10" s="45" t="s">
+      <c r="M10" s="48"/>
+      <c r="N10" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="45"/>
+      <c r="O10" s="40"/>
     </row>
     <row r="11" spans="1:23" ht="42.6" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="46" t="s">
+      <c r="C11" s="48"/>
+      <c r="D11" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="47" t="s">
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="47"/>
-      <c r="N11" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="O11" s="46"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" s="49"/>
     </row>
     <row r="12" spans="1:23" ht="4.3499999999999996" customHeight="1" thickBot="1">
       <c r="A12" s="2" t="s">
@@ -1918,6 +1935,9 @@
       <c r="O12" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="R12" s="39" t="s">
+        <v>1</v>
+      </c>
       <c r="T12" s="35" t="s">
         <v>1</v>
       </c>
@@ -1977,6 +1997,9 @@
       <c r="O13" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="R13" s="39" t="s">
+        <v>1</v>
+      </c>
       <c r="T13" s="35" t="s">
         <v>1</v>
       </c>
@@ -2036,6 +2059,9 @@
       <c r="O14" s="8" t="s">
         <v>1</v>
       </c>
+      <c r="R14" s="8" t="s">
+        <v>1</v>
+      </c>
       <c r="T14" s="8" t="s">
         <v>1</v>
       </c>
@@ -2053,38 +2079,41 @@
       <c r="A15" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48" t="s">
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48" t="s">
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48" t="s">
+      <c r="K15" s="57"/>
+      <c r="L15" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="48"/>
-      <c r="N15" s="49" t="s">
+      <c r="M15" s="57"/>
+      <c r="N15" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="O15" s="49"/>
+      <c r="O15" s="58"/>
+      <c r="R15" s="59" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:23" ht="25.5" customHeight="1" thickBot="1">
       <c r="A16" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="50"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="10" t="s">
         <v>24</v>
       </c>
@@ -2124,6 +2153,7 @@
       <c r="O16" s="18" t="s">
         <v>34</v>
       </c>
+      <c r="R16" s="59"/>
       <c r="T16" s="10" t="s">
         <v>24</v>
       </c>
@@ -2183,6 +2213,9 @@
       <c r="O17" s="11" t="s">
         <v>1</v>
       </c>
+      <c r="R17" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="T17" s="11" t="s">
         <v>1</v>
       </c>
@@ -2203,21 +2236,24 @@
       <c r="B18" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="R18" s="12" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:26" ht="21.2" customHeight="1">
       <c r="A19" s="2" t="s">
@@ -2265,6 +2301,9 @@
       <c r="O19" s="22">
         <v>13188</v>
       </c>
+      <c r="R19" s="13">
+        <v>1</v>
+      </c>
       <c r="S19" t="s">
         <v>127</v>
       </c>
@@ -2280,10 +2319,10 @@
       <c r="W19" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="Y19" s="45" t="s">
+      <c r="Y19" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Z19" s="45"/>
+      <c r="Z19" s="40"/>
     </row>
     <row r="20" spans="1:26" ht="21.2" customHeight="1">
       <c r="A20" s="2" t="s">
@@ -2331,6 +2370,9 @@
       <c r="O20" s="22">
         <v>7040</v>
       </c>
+      <c r="R20" s="13">
+        <v>2</v>
+      </c>
       <c r="S20" t="s">
         <v>128</v>
       </c>
@@ -2354,21 +2396,24 @@
       <c r="B21" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="R21" s="12" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:26" ht="21.2" customHeight="1">
       <c r="A22" s="2" t="s">
@@ -2416,6 +2461,9 @@
       <c r="O22" s="22">
         <v>2584</v>
       </c>
+      <c r="R22" s="13">
+        <v>3</v>
+      </c>
       <c r="S22" t="s">
         <v>129</v>
       </c>
@@ -2478,6 +2526,9 @@
       <c r="O23" s="22">
         <v>4224</v>
       </c>
+      <c r="R23" s="13">
+        <v>4</v>
+      </c>
       <c r="S23" t="s">
         <v>129</v>
       </c>
@@ -2540,6 +2591,9 @@
       <c r="O24" s="22">
         <v>3458.4</v>
       </c>
+      <c r="R24" s="13">
+        <v>5</v>
+      </c>
       <c r="S24" t="s">
         <v>129</v>
       </c>
@@ -2602,6 +2656,9 @@
       <c r="O25" s="22">
         <v>3472</v>
       </c>
+      <c r="R25" s="13">
+        <v>6</v>
+      </c>
       <c r="S25" t="s">
         <v>129</v>
       </c>
@@ -2664,6 +2721,9 @@
       <c r="O26" s="22">
         <v>6836.4</v>
       </c>
+      <c r="R26" s="13">
+        <v>7</v>
+      </c>
       <c r="S26" t="s">
         <v>129</v>
       </c>
@@ -2726,6 +2786,9 @@
       <c r="O27" s="22">
         <v>7221.6</v>
       </c>
+      <c r="R27" s="13">
+        <v>8</v>
+      </c>
       <c r="S27" t="s">
         <v>129</v>
       </c>
@@ -2749,21 +2812,24 @@
       <c r="B28" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="51" t="s">
+      <c r="C28" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="R28" s="12" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:26" ht="21.2" customHeight="1">
       <c r="A29" s="2" t="s">
@@ -2811,6 +2877,9 @@
       <c r="O29" s="22">
         <v>2800</v>
       </c>
+      <c r="R29" s="13">
+        <v>9</v>
+      </c>
       <c r="S29" t="s">
         <v>129</v>
       </c>
@@ -2834,21 +2903,24 @@
       <c r="B30" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="R30" s="12" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:26" ht="21.2" customHeight="1">
       <c r="A31" s="2" t="s">
@@ -2896,6 +2968,9 @@
       <c r="O31" s="22">
         <v>4420.8</v>
       </c>
+      <c r="R31" s="13">
+        <v>10</v>
+      </c>
       <c r="S31" t="s">
         <v>129</v>
       </c>
@@ -2958,6 +3033,9 @@
       <c r="O32" s="22">
         <v>4765.2</v>
       </c>
+      <c r="R32" s="13">
+        <v>11</v>
+      </c>
       <c r="S32" t="s">
         <v>129</v>
       </c>
@@ -2981,21 +3059,24 @@
       <c r="B33" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="51" t="s">
+      <c r="C33" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="51"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="55"/>
+      <c r="R33" s="12" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:23" ht="21.2" customHeight="1">
       <c r="A34" s="2" t="s">
@@ -3043,6 +3124,9 @@
       <c r="O34" s="22">
         <v>4071</v>
       </c>
+      <c r="R34" s="13">
+        <v>12</v>
+      </c>
       <c r="S34" t="s">
         <v>130</v>
       </c>
@@ -3105,6 +3189,9 @@
       <c r="O35" s="22">
         <v>2618.6999999999998</v>
       </c>
+      <c r="R35" s="13">
+        <v>13</v>
+      </c>
       <c r="S35" t="s">
         <v>130</v>
       </c>
@@ -3128,21 +3215,24 @@
       <c r="B36" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="55"/>
+      <c r="R36" s="12" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:23" ht="21.2" customHeight="1">
       <c r="A37" s="2" t="s">
@@ -3190,6 +3280,9 @@
       <c r="O37" s="22">
         <v>4362.82</v>
       </c>
+      <c r="R37" s="13">
+        <v>14</v>
+      </c>
       <c r="S37" t="s">
         <v>131</v>
       </c>
@@ -3252,6 +3345,9 @@
       <c r="O38" s="22">
         <v>4020</v>
       </c>
+      <c r="R38" s="13">
+        <v>15</v>
+      </c>
       <c r="S38" t="s">
         <v>131</v>
       </c>
@@ -3275,21 +3371,24 @@
       <c r="B39" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="51" t="s">
+      <c r="C39" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="51"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
+      <c r="R39" s="12" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:23" ht="21.2" customHeight="1">
       <c r="A40" s="2" t="s">
@@ -3337,6 +3436,9 @@
       <c r="O40" s="22">
         <v>2801.78</v>
       </c>
+      <c r="R40" s="13">
+        <v>16</v>
+      </c>
       <c r="S40" t="s">
         <v>132</v>
       </c>
@@ -3399,6 +3501,9 @@
       <c r="O41" s="22">
         <v>2626.96</v>
       </c>
+      <c r="R41" s="13">
+        <v>17</v>
+      </c>
       <c r="S41" t="s">
         <v>132</v>
       </c>
@@ -3461,6 +3566,9 @@
       <c r="O42" s="22">
         <v>2626.04</v>
       </c>
+      <c r="R42" s="13">
+        <v>18</v>
+      </c>
       <c r="S42" t="s">
         <v>132</v>
       </c>
@@ -3523,6 +3631,9 @@
       <c r="O43" s="22">
         <v>2508.02</v>
       </c>
+      <c r="R43" s="13">
+        <v>19</v>
+      </c>
       <c r="S43" t="s">
         <v>132</v>
       </c>
@@ -3585,6 +3696,9 @@
       <c r="O44" s="22">
         <v>5846.38</v>
       </c>
+      <c r="R44" s="13">
+        <v>20</v>
+      </c>
       <c r="S44" t="s">
         <v>132</v>
       </c>
@@ -3647,6 +3761,9 @@
       <c r="O45" s="22">
         <v>3421.02</v>
       </c>
+      <c r="R45" s="13">
+        <v>21</v>
+      </c>
       <c r="S45" t="s">
         <v>132</v>
       </c>
@@ -3709,6 +3826,9 @@
       <c r="O46" s="22">
         <v>2506.6</v>
       </c>
+      <c r="R46" s="13">
+        <v>22</v>
+      </c>
       <c r="S46" t="s">
         <v>132</v>
       </c>
@@ -3771,6 +3891,9 @@
       <c r="O47" s="22">
         <v>2505.9499999999998</v>
       </c>
+      <c r="R47" s="13">
+        <v>23</v>
+      </c>
       <c r="S47" t="s">
         <v>132</v>
       </c>
@@ -3833,6 +3956,9 @@
       <c r="O48" s="22">
         <v>5012.8599999999997</v>
       </c>
+      <c r="R48" s="13">
+        <v>24</v>
+      </c>
       <c r="S48" t="s">
         <v>132</v>
       </c>
@@ -3895,6 +4021,9 @@
       <c r="O49" s="22">
         <v>5778.35</v>
       </c>
+      <c r="R49" s="13">
+        <v>25</v>
+      </c>
       <c r="S49" t="s">
         <v>132</v>
       </c>
@@ -3918,21 +4047,24 @@
       <c r="B50" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="51" t="s">
+      <c r="C50" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="51"/>
-      <c r="L50" s="51"/>
-      <c r="M50" s="51"/>
-      <c r="N50" s="51"/>
-      <c r="O50" s="51"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="55"/>
+      <c r="N50" s="55"/>
+      <c r="O50" s="55"/>
+      <c r="R50" s="12" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:23" ht="21.2" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -3980,6 +4112,9 @@
       <c r="O51" s="22">
         <v>2660.2</v>
       </c>
+      <c r="R51" s="13">
+        <v>26</v>
+      </c>
       <c r="S51" t="s">
         <v>133</v>
       </c>
@@ -4042,6 +4177,9 @@
       <c r="O52" s="22">
         <v>2515.04</v>
       </c>
+      <c r="R52" s="13">
+        <v>27</v>
+      </c>
       <c r="S52" t="s">
         <v>133</v>
       </c>
@@ -4104,6 +4242,9 @@
       <c r="O53" s="22">
         <v>2841.6</v>
       </c>
+      <c r="R53" s="13">
+        <v>28</v>
+      </c>
       <c r="S53" t="s">
         <v>133</v>
       </c>
@@ -4166,6 +4307,9 @@
       <c r="O54" s="22">
         <v>3349.5</v>
       </c>
+      <c r="R54" s="13">
+        <v>29</v>
+      </c>
       <c r="S54" t="s">
         <v>133</v>
       </c>
@@ -4189,21 +4333,24 @@
       <c r="B55" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="51" t="s">
+      <c r="C55" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="51"/>
-      <c r="K55" s="51"/>
-      <c r="L55" s="51"/>
-      <c r="M55" s="51"/>
-      <c r="N55" s="51"/>
-      <c r="O55" s="51"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="55"/>
+      <c r="M55" s="55"/>
+      <c r="N55" s="55"/>
+      <c r="O55" s="55"/>
+      <c r="R55" s="12" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:23" ht="21.2" customHeight="1">
       <c r="A56" s="2" t="s">
@@ -4251,6 +4398,9 @@
       <c r="O56" s="22">
         <v>2037.2</v>
       </c>
+      <c r="R56" s="13">
+        <v>30</v>
+      </c>
       <c r="S56" t="s">
         <v>134</v>
       </c>
@@ -4313,6 +4463,9 @@
       <c r="O57" s="22">
         <v>2193.1999999999998</v>
       </c>
+      <c r="R57" s="13">
+        <v>31</v>
+      </c>
       <c r="S57" t="s">
         <v>134</v>
       </c>
@@ -4375,6 +4528,9 @@
       <c r="O58" s="22">
         <v>1645.8</v>
       </c>
+      <c r="R58" s="13">
+        <v>32</v>
+      </c>
       <c r="S58" t="s">
         <v>134</v>
       </c>
@@ -4437,6 +4593,9 @@
       <c r="O59" s="22">
         <v>2190.3000000000002</v>
       </c>
+      <c r="R59" s="13">
+        <v>33</v>
+      </c>
       <c r="S59" t="s">
         <v>134</v>
       </c>
@@ -4499,6 +4658,9 @@
       <c r="O60" s="22">
         <v>1817.7</v>
       </c>
+      <c r="R60" s="13">
+        <v>34</v>
+      </c>
       <c r="S60" t="s">
         <v>134</v>
       </c>
@@ -4522,21 +4684,24 @@
       <c r="B61" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="51" t="s">
+      <c r="C61" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51"/>
-      <c r="I61" s="51"/>
-      <c r="J61" s="51"/>
-      <c r="K61" s="51"/>
-      <c r="L61" s="51"/>
-      <c r="M61" s="51"/>
-      <c r="N61" s="51"/>
-      <c r="O61" s="51"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="55"/>
+      <c r="L61" s="55"/>
+      <c r="M61" s="55"/>
+      <c r="N61" s="55"/>
+      <c r="O61" s="55"/>
+      <c r="R61" s="12" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:23" ht="21.2" customHeight="1">
       <c r="A62" s="2" t="s">
@@ -4584,6 +4749,9 @@
       <c r="O62" s="22">
         <v>2316.4</v>
       </c>
+      <c r="R62" s="13">
+        <v>35</v>
+      </c>
       <c r="S62" t="s">
         <v>135</v>
       </c>
@@ -4646,6 +4814,9 @@
       <c r="O63" s="22">
         <v>3695.2</v>
       </c>
+      <c r="R63" s="13">
+        <v>36</v>
+      </c>
       <c r="S63" t="s">
         <v>135</v>
       </c>
@@ -4708,6 +4879,9 @@
       <c r="O64" s="22">
         <v>2554.8000000000002</v>
       </c>
+      <c r="R64" s="13">
+        <v>37</v>
+      </c>
       <c r="S64" t="s">
         <v>135</v>
       </c>
@@ -4770,6 +4944,9 @@
       <c r="O65" s="22">
         <v>3120</v>
       </c>
+      <c r="R65" s="13">
+        <v>38</v>
+      </c>
       <c r="S65" t="s">
         <v>135</v>
       </c>
@@ -4832,6 +5009,9 @@
       <c r="O66" s="22">
         <v>2816</v>
       </c>
+      <c r="R66" s="13">
+        <v>39</v>
+      </c>
       <c r="S66" t="s">
         <v>135</v>
       </c>
@@ -4894,6 +5074,9 @@
       <c r="O67" s="22">
         <v>1404.8</v>
       </c>
+      <c r="R67" s="13">
+        <v>40</v>
+      </c>
       <c r="S67" t="s">
         <v>135</v>
       </c>
@@ -4914,10 +5097,10 @@
       <c r="A68" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="52" t="s">
+      <c r="B68" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="52"/>
+      <c r="C68" s="51"/>
       <c r="D68" s="14" t="s">
         <v>1</v>
       </c>
@@ -4936,20 +5119,20 @@
       <c r="I68" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J68" s="53">
+      <c r="J68" s="52">
         <v>18097.98</v>
       </c>
-      <c r="K68" s="53"/>
+      <c r="K68" s="52"/>
       <c r="L68" s="32">
         <v>6992.93</v>
       </c>
       <c r="M68" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="N68" s="54">
+      <c r="N68" s="53">
         <v>147874.62</v>
       </c>
-      <c r="O68" s="54"/>
+      <c r="O68" s="53"/>
       <c r="U68" s="14" t="s">
         <v>1</v>
       </c>
@@ -5006,6 +5189,9 @@
       <c r="O69" s="24" t="s">
         <v>1</v>
       </c>
+      <c r="R69" s="24" t="s">
+        <v>1</v>
+      </c>
       <c r="T69" s="25" t="s">
         <v>1</v>
       </c>
@@ -5023,28 +5209,28 @@
       <c r="A70" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="55" t="s">
+      <c r="B70" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="C70" s="55"/>
-      <c r="D70" s="55"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="54"/>
       <c r="E70" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F70" s="55" t="s">
+      <c r="F70" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="G70" s="55"/>
-      <c r="H70" s="55"/>
-      <c r="I70" s="55"/>
-      <c r="J70" s="55"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="54"/>
       <c r="K70" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="L70" s="55" t="s">
+      <c r="L70" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="M70" s="55"/>
+      <c r="M70" s="54"/>
       <c r="N70" s="33" t="s">
         <v>1</v>
       </c>
@@ -5056,276 +5242,276 @@
       <c r="A71" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="44" t="s">
+      <c r="B71" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="48"/>
       <c r="E71" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F71" s="45" t="s">
+      <c r="F71" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="G71" s="45"/>
-      <c r="H71" s="45"/>
-      <c r="I71" s="45"/>
-      <c r="J71" s="45"/>
-      <c r="K71" s="45"/>
-      <c r="L71" s="45"/>
-      <c r="M71" s="45"/>
-      <c r="N71" s="45"/>
-      <c r="O71" s="45"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="40"/>
+      <c r="K71" s="40"/>
+      <c r="L71" s="40"/>
+      <c r="M71" s="40"/>
+      <c r="N71" s="40"/>
+      <c r="O71" s="40"/>
     </row>
     <row r="72" spans="1:23" ht="21.2" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="44" t="s">
+      <c r="B72" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="44"/>
-      <c r="D72" s="44"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="48"/>
       <c r="E72" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F72" s="45" t="s">
+      <c r="F72" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="G72" s="45"/>
-      <c r="H72" s="45"/>
-      <c r="I72" s="45"/>
-      <c r="J72" s="45"/>
-      <c r="K72" s="45"/>
-      <c r="L72" s="45"/>
-      <c r="M72" s="45"/>
-      <c r="N72" s="45"/>
-      <c r="O72" s="45"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="40"/>
+      <c r="K72" s="40"/>
+      <c r="L72" s="40"/>
+      <c r="M72" s="40"/>
+      <c r="N72" s="40"/>
+      <c r="O72" s="40"/>
     </row>
     <row r="73" spans="1:23" ht="21.2" customHeight="1">
       <c r="A73" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B73" s="44" t="s">
+      <c r="B73" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="C73" s="44"/>
-      <c r="D73" s="44"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="48"/>
       <c r="E73" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F73" s="45" t="s">
+      <c r="F73" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="G73" s="45"/>
-      <c r="H73" s="45"/>
-      <c r="I73" s="45"/>
-      <c r="J73" s="45"/>
-      <c r="K73" s="45"/>
-      <c r="L73" s="45"/>
-      <c r="M73" s="45"/>
-      <c r="N73" s="45"/>
-      <c r="O73" s="45"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="40"/>
+      <c r="I73" s="40"/>
+      <c r="J73" s="40"/>
+      <c r="K73" s="40"/>
+      <c r="L73" s="40"/>
+      <c r="M73" s="40"/>
+      <c r="N73" s="40"/>
+      <c r="O73" s="40"/>
     </row>
     <row r="74" spans="1:23" ht="21.2" customHeight="1">
       <c r="A74" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="44" t="s">
+      <c r="B74" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="48"/>
       <c r="E74" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F74" s="45" t="s">
+      <c r="F74" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="G74" s="45"/>
-      <c r="H74" s="45"/>
-      <c r="I74" s="45"/>
-      <c r="J74" s="45"/>
-      <c r="K74" s="45"/>
-      <c r="L74" s="44" t="s">
+      <c r="G74" s="40"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="40"/>
+      <c r="J74" s="40"/>
+      <c r="K74" s="40"/>
+      <c r="L74" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="M74" s="44"/>
-      <c r="N74" s="45" t="s">
+      <c r="M74" s="48"/>
+      <c r="N74" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="O74" s="45"/>
+      <c r="O74" s="40"/>
     </row>
     <row r="75" spans="1:23" ht="21.2" customHeight="1">
       <c r="A75" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="44" t="s">
+      <c r="B75" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
       <c r="E75" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F75" s="45" t="s">
+      <c r="F75" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="G75" s="45"/>
-      <c r="H75" s="45"/>
-      <c r="I75" s="45"/>
-      <c r="J75" s="45"/>
-      <c r="K75" s="45"/>
-      <c r="L75" s="45"/>
-      <c r="M75" s="45"/>
-      <c r="N75" s="45"/>
-      <c r="O75" s="45"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="40"/>
+      <c r="K75" s="40"/>
+      <c r="L75" s="40"/>
+      <c r="M75" s="40"/>
+      <c r="N75" s="40"/>
+      <c r="O75" s="40"/>
     </row>
     <row r="76" spans="1:23" ht="21.2" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="44" t="s">
+      <c r="B76" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
+      <c r="C76" s="48"/>
+      <c r="D76" s="48"/>
       <c r="E76" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F76" s="45" t="s">
+      <c r="F76" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="G76" s="45"/>
-      <c r="H76" s="45"/>
-      <c r="I76" s="45"/>
-      <c r="J76" s="45"/>
-      <c r="K76" s="45"/>
-      <c r="L76" s="45"/>
-      <c r="M76" s="45"/>
-      <c r="N76" s="45"/>
-      <c r="O76" s="45"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="40"/>
+      <c r="L76" s="40"/>
+      <c r="M76" s="40"/>
+      <c r="N76" s="40"/>
+      <c r="O76" s="40"/>
     </row>
     <row r="77" spans="1:23" ht="19.5" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B77" s="56" t="s">
+      <c r="B77" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="C77" s="56"/>
-      <c r="D77" s="56"/>
-      <c r="E77" s="56"/>
-      <c r="F77" s="56"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="56"/>
-      <c r="K77" s="56"/>
-      <c r="L77" s="56"/>
-      <c r="M77" s="56"/>
-      <c r="N77" s="56"/>
-      <c r="O77" s="56"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="50"/>
+      <c r="J77" s="50"/>
+      <c r="K77" s="50"/>
+      <c r="L77" s="50"/>
+      <c r="M77" s="50"/>
+      <c r="N77" s="50"/>
+      <c r="O77" s="50"/>
     </row>
     <row r="78" spans="1:23" ht="33.200000000000003" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="44" t="s">
+      <c r="B78" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C78" s="44"/>
-      <c r="D78" s="44"/>
+      <c r="C78" s="48"/>
+      <c r="D78" s="48"/>
       <c r="E78" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F78" s="46" t="s">
+      <c r="F78" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="G78" s="46"/>
-      <c r="H78" s="46"/>
-      <c r="I78" s="46"/>
-      <c r="J78" s="46"/>
-      <c r="K78" s="46"/>
-      <c r="L78" s="46"/>
-      <c r="M78" s="46"/>
-      <c r="N78" s="46"/>
-      <c r="O78" s="46"/>
+      <c r="G78" s="49"/>
+      <c r="H78" s="49"/>
+      <c r="I78" s="49"/>
+      <c r="J78" s="49"/>
+      <c r="K78" s="49"/>
+      <c r="L78" s="49"/>
+      <c r="M78" s="49"/>
+      <c r="N78" s="49"/>
+      <c r="O78" s="49"/>
     </row>
     <row r="79" spans="1:23" ht="33.200000000000003" customHeight="1">
       <c r="A79" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B79" s="44" t="s">
+      <c r="B79" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="C79" s="44"/>
-      <c r="D79" s="44"/>
+      <c r="C79" s="48"/>
+      <c r="D79" s="48"/>
       <c r="E79" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F79" s="46" t="s">
+      <c r="F79" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="G79" s="46"/>
-      <c r="H79" s="46"/>
-      <c r="I79" s="46"/>
-      <c r="J79" s="46"/>
-      <c r="K79" s="46"/>
-      <c r="L79" s="46"/>
-      <c r="M79" s="46"/>
-      <c r="N79" s="46"/>
-      <c r="O79" s="46"/>
+      <c r="G79" s="49"/>
+      <c r="H79" s="49"/>
+      <c r="I79" s="49"/>
+      <c r="J79" s="49"/>
+      <c r="K79" s="49"/>
+      <c r="L79" s="49"/>
+      <c r="M79" s="49"/>
+      <c r="N79" s="49"/>
+      <c r="O79" s="49"/>
     </row>
     <row r="80" spans="1:23" ht="21.2" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="44" t="s">
+      <c r="B80" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="C80" s="44"/>
-      <c r="D80" s="44"/>
+      <c r="C80" s="48"/>
+      <c r="D80" s="48"/>
       <c r="E80" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F80" s="45" t="s">
+      <c r="F80" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="G80" s="45"/>
-      <c r="H80" s="45"/>
-      <c r="I80" s="45"/>
-      <c r="J80" s="45"/>
-      <c r="K80" s="45"/>
-      <c r="L80" s="45"/>
-      <c r="M80" s="45"/>
-      <c r="N80" s="45"/>
-      <c r="O80" s="45"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="40"/>
+      <c r="J80" s="40"/>
+      <c r="K80" s="40"/>
+      <c r="L80" s="40"/>
+      <c r="M80" s="40"/>
+      <c r="N80" s="40"/>
+      <c r="O80" s="40"/>
     </row>
     <row r="81" spans="1:23" ht="21.2" customHeight="1">
       <c r="A81" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B81" s="44" t="s">
+      <c r="B81" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="C81" s="44"/>
-      <c r="D81" s="44"/>
+      <c r="C81" s="48"/>
+      <c r="D81" s="48"/>
       <c r="E81" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F81" s="45" t="s">
+      <c r="F81" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G81" s="45"/>
-      <c r="H81" s="45"/>
-      <c r="I81" s="45"/>
-      <c r="J81" s="45"/>
-      <c r="K81" s="45"/>
-      <c r="L81" s="45"/>
-      <c r="M81" s="45"/>
-      <c r="N81" s="45"/>
-      <c r="O81" s="45"/>
+      <c r="G81" s="40"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="40"/>
+      <c r="J81" s="40"/>
+      <c r="K81" s="40"/>
+      <c r="L81" s="40"/>
+      <c r="M81" s="40"/>
+      <c r="N81" s="40"/>
+      <c r="O81" s="40"/>
     </row>
     <row r="82" spans="1:23" ht="89.25" customHeight="1" thickBot="1">
       <c r="A82" s="2" t="s">
@@ -5334,27 +5520,30 @@
       <c r="B82" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C82" s="57" t="s">
+      <c r="C82" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D82" s="57"/>
-      <c r="E82" s="57"/>
-      <c r="F82" s="57"/>
-      <c r="G82" s="57"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="44"/>
       <c r="H82" s="6" t="s">
         <v>1</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J82" s="58" t="s">
+      <c r="J82" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="K82" s="58"/>
-      <c r="L82" s="58"/>
-      <c r="M82" s="58"/>
-      <c r="N82" s="58"/>
-      <c r="O82" s="58"/>
+      <c r="K82" s="45"/>
+      <c r="L82" s="45"/>
+      <c r="M82" s="45"/>
+      <c r="N82" s="45"/>
+      <c r="O82" s="45"/>
+      <c r="R82" s="39" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" spans="1:23" ht="21.2" customHeight="1">
       <c r="A83" s="2" t="s">
@@ -5363,37 +5552,40 @@
       <c r="B83" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C83" s="59" t="s">
+      <c r="C83" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="D83" s="59"/>
-      <c r="E83" s="59"/>
-      <c r="F83" s="59"/>
-      <c r="G83" s="59"/>
+      <c r="D83" s="46"/>
+      <c r="E83" s="46"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="46"/>
       <c r="H83" s="6" t="s">
         <v>1</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J83" s="59" t="s">
+      <c r="J83" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="K83" s="59"/>
-      <c r="L83" s="59"/>
-      <c r="M83" s="59"/>
-      <c r="N83" s="59"/>
-      <c r="O83" s="59"/>
+      <c r="K83" s="46"/>
+      <c r="L83" s="46"/>
+      <c r="M83" s="46"/>
+      <c r="N83" s="46"/>
+      <c r="O83" s="46"/>
+      <c r="R83" s="39" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:23" ht="25.5" customHeight="1">
       <c r="A84" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="60" t="s">
+      <c r="B84" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="C84" s="60"/>
-      <c r="D84" s="60"/>
+      <c r="C84" s="47"/>
+      <c r="D84" s="47"/>
       <c r="E84" s="1" t="s">
         <v>1</v>
       </c>
@@ -5441,118 +5633,171 @@
       <c r="A85" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" s="61"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
-      <c r="G85" s="61"/>
-      <c r="H85" s="61"/>
-      <c r="I85" s="61"/>
-      <c r="J85" s="61"/>
-      <c r="K85" s="61"/>
-      <c r="L85" s="61"/>
-      <c r="M85" s="61"/>
-      <c r="N85" s="61"/>
-      <c r="O85" s="61"/>
+      <c r="B85" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="42"/>
+      <c r="K85" s="42"/>
+      <c r="L85" s="42"/>
+      <c r="M85" s="42"/>
+      <c r="N85" s="42"/>
+      <c r="O85" s="42"/>
     </row>
     <row r="86" spans="1:23" ht="19.5" customHeight="1">
       <c r="A86" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="62" t="s">
+      <c r="B86" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="C86" s="62"/>
-      <c r="D86" s="62"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
       <c r="E86" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F86" s="62" t="s">
+      <c r="F86" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="G86" s="62"/>
-      <c r="H86" s="62"/>
-      <c r="I86" s="62"/>
-      <c r="J86" s="62" t="s">
+      <c r="G86" s="43"/>
+      <c r="H86" s="43"/>
+      <c r="I86" s="43"/>
+      <c r="J86" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="K86" s="62"/>
-      <c r="L86" s="62"/>
-      <c r="M86" s="62" t="s">
+      <c r="K86" s="43"/>
+      <c r="L86" s="43"/>
+      <c r="M86" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="N86" s="62"/>
-      <c r="O86" s="62"/>
+      <c r="N86" s="43"/>
+      <c r="O86" s="43"/>
     </row>
     <row r="87" spans="1:23" ht="19.5" customHeight="1">
       <c r="A87" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B87" s="63" t="s">
+      <c r="B87" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="C87" s="63"/>
-      <c r="D87" s="63"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="41"/>
       <c r="E87" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="F87" s="63" t="s">
+      <c r="F87" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="G87" s="63"/>
-      <c r="H87" s="63"/>
-      <c r="I87" s="63"/>
-      <c r="J87" s="63" t="s">
+      <c r="G87" s="41"/>
+      <c r="H87" s="41"/>
+      <c r="I87" s="41"/>
+      <c r="J87" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="K87" s="63"/>
-      <c r="L87" s="63"/>
-      <c r="M87" s="63" t="s">
+      <c r="K87" s="41"/>
+      <c r="L87" s="41"/>
+      <c r="M87" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="N87" s="63"/>
-      <c r="O87" s="63"/>
+      <c r="N87" s="41"/>
+      <c r="O87" s="41"/>
     </row>
     <row r="88" spans="1:23" ht="19.5" customHeight="1">
       <c r="A88" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B88" s="63" t="s">
+      <c r="B88" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="C88" s="63"/>
-      <c r="D88" s="63"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="41"/>
       <c r="E88" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="F88" s="63" t="s">
+      <c r="F88" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="G88" s="63"/>
-      <c r="H88" s="63"/>
-      <c r="I88" s="63"/>
-      <c r="J88" s="63" t="s">
+      <c r="G88" s="41"/>
+      <c r="H88" s="41"/>
+      <c r="I88" s="41"/>
+      <c r="J88" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="K88" s="63"/>
-      <c r="L88" s="63"/>
-      <c r="M88" s="63" t="s">
+      <c r="K88" s="41"/>
+      <c r="L88" s="41"/>
+      <c r="M88" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="N88" s="63"/>
-      <c r="O88" s="63"/>
+      <c r="N88" s="41"/>
+      <c r="O88" s="41"/>
     </row>
     <row r="89" spans="1:23" ht="1.7" customHeight="1"/>
   </sheetData>
-  <mergeCells count="82">
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="J87:L87"/>
-    <mergeCell ref="M87:O87"/>
+  <mergeCells count="83">
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="F2:O2"/>
+    <mergeCell ref="F3:O3"/>
+    <mergeCell ref="F4:O4"/>
+    <mergeCell ref="F5:O5"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B2:D5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C18:O18"/>
+    <mergeCell ref="C21:O21"/>
+    <mergeCell ref="C28:O28"/>
+    <mergeCell ref="C30:O30"/>
+    <mergeCell ref="C33:O33"/>
+    <mergeCell ref="C36:O36"/>
+    <mergeCell ref="C39:O39"/>
+    <mergeCell ref="C50:O50"/>
+    <mergeCell ref="C55:O55"/>
+    <mergeCell ref="C61:O61"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="F71:O71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="F72:O72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="F73:O73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="F74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="F75:O75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="F76:O76"/>
+    <mergeCell ref="B77:O77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="F78:O78"/>
     <mergeCell ref="B88:D88"/>
     <mergeCell ref="F88:I88"/>
     <mergeCell ref="J88:L88"/>
@@ -5562,6 +5807,11 @@
     <mergeCell ref="F86:I86"/>
     <mergeCell ref="J86:L86"/>
     <mergeCell ref="M86:O86"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="M87:O87"/>
     <mergeCell ref="C82:G82"/>
     <mergeCell ref="J82:O82"/>
     <mergeCell ref="C83:G83"/>
@@ -5573,63 +5823,6 @@
     <mergeCell ref="F80:O80"/>
     <mergeCell ref="B81:D81"/>
     <mergeCell ref="F81:O81"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="F76:O76"/>
-    <mergeCell ref="B77:O77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="F78:O78"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="F74:K74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="F75:O75"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="F71:O71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="F72:O72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="F73:O73"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="C36:O36"/>
-    <mergeCell ref="C39:O39"/>
-    <mergeCell ref="C50:O50"/>
-    <mergeCell ref="C55:O55"/>
-    <mergeCell ref="C61:O61"/>
-    <mergeCell ref="C18:O18"/>
-    <mergeCell ref="C21:O21"/>
-    <mergeCell ref="C28:O28"/>
-    <mergeCell ref="C30:O30"/>
-    <mergeCell ref="C33:O33"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="F2:O2"/>
-    <mergeCell ref="F3:O3"/>
-    <mergeCell ref="F4:O4"/>
-    <mergeCell ref="F5:O5"/>
-    <mergeCell ref="B7:O7"/>
-    <mergeCell ref="B2:D5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.196527777777778" bottom="0.196527777777778" header="0.29861111111111099" footer="0.29861111111111099"/>
